--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAD7BAB-1EA3-427D-A2B4-CE5827225414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF33E1-9F38-41B0-B601-DBB96C563453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>special2 800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special2 600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +275,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.130581</c:v>
+                  <c:v>0.13153899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13061800000000001</c:v>
@@ -281,7 +293,7 @@
                   <c:v>0.162526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.163911</c:v>
+                  <c:v>0.164078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +611,7 @@
                   <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15316099999999999</c:v>
+                  <c:v>0.15118899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,7 +1044,7 @@
                   <c:v>0.14188300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15132899999999999</c:v>
+                  <c:v>0.15087200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.15685199999999999</c:v>
@@ -1044,7 +1056,7 @@
                   <c:v>0.15034600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15357599999999999</c:v>
+                  <c:v>0.15207100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,10 +1368,10 @@
                   <c:v>0.148675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16577600000000001</c:v>
+                  <c:v>0.16695299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18648999999999999</c:v>
+                  <c:v>0.18564600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.204014</c:v>
@@ -2116,10 +2128,10 @@
                   <c:v>0.149367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.169964</c:v>
+                  <c:v>0.16839399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19021399999999999</c:v>
+                  <c:v>0.19209100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.21584700000000001</c:v>
@@ -2134,112 +2146,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-05FB-4E3B-95D5-E72812927595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR(off)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="9900FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9900FF"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="9900FF"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.14058399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16157199999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23114799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29735</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34867599999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.396592</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43452800000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-05FB-4E3B-95D5-E72812927595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2657,6 +2563,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.131609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13111300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13125500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13103699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13927899999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2912,6 +2839,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13053500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.130659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13064400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13087499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13092699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13161600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.131024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3336,6 +3284,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12862000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13037199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13832800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14865200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15185899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15626699999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3591,6 +3560,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12837000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12870899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131687</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.135411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14255799999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4015,6 +4005,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13795399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13769700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17585700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17267299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.176368</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4270,6 +4281,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13710900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.137348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13736300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13914299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14136699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14444299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14908299999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4280,16 +4312,349 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355063976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$23</c:f>
+              <c:f>工作表1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E-DSR(off)</c:v>
+                  <c:v>E-DSR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4297,22 +4662,28 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9900FF"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9900FF"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="9900FF"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4321,7 +4692,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$18:$S$18</c:f>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4351,7 +4722,113 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$23:$S$23</c:f>
+              <c:f>工作表1!$W$2:$AC$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13081799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.130743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13103200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13156999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13098799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13141700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E56-4CBF-9D92-29BC309651D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4361,7 +4838,1640 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DED6-41AD-ACAB-348947612418}"/>
+              <c16:uniqueId val="{00000001-7E56-4CBF-9D92-29BC309651D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$4:$AC$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E56-4CBF-9D92-29BC309651D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$5:$AC$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13126299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.131023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13100400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13092899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13112199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13129399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13104299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E56-4CBF-9D92-29BC309651D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355063976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$10:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.128331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12831000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12920300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12876000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.130023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13636999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14061299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71B9-49F0-AD9F-02C22053A650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$11:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71B9-49F0-AD9F-02C22053A650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71B9-49F0-AD9F-02C22053A650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$9:$AC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$13:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.128577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.128413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12912000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12919700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12986600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-71B9-49F0-AD9F-02C22053A650}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355063976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$18:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$19:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13778000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13791800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13859099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13783699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13993900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.152832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16253500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD8A-4045-99FD-7D7E71EAAF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$18:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$20:$AC$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD8A-4045-99FD-7D7E71EAAF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$18:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$21:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD8A-4045-99FD-7D7E71EAAF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$W$18:$AC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$W$22:$AC$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13733999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.137684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13793900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13819899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.138043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13847100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.139103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD8A-4045-99FD-7D7E71EAAF38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4918,6 +7028,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -7524,6 +9754,1569 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8122,16 +11915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>72736</xdr:rowOff>
+      <xdr:rowOff>39119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>267229</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569787</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>120361</xdr:rowOff>
+      <xdr:rowOff>86744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8198,16 +11991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>661554</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163657</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>626581</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>3463</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>570552</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>93110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8237,15 +12030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>125557</xdr:rowOff>
+      <xdr:colOff>631604</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>530465</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:colOff>642524</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>94741</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8267,6 +12060,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676579</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>639347</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="圖表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40E2480-77DD-493A-9CB6-9B3079C4FCC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>204405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603763</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="圖表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EFAD2E-0606-43EB-A6CE-18D3F559A955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>664815</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>211127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>675735</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45841</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="圖表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44CBA6A-F588-4E56-B144-5B04BF9C55B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8596,10 +12503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8610,7 +12517,7 @@
     <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8659,8 +12566,32 @@
       <c r="S1" s="1">
         <v>1000</v>
       </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1">
+        <v>400</v>
+      </c>
+      <c r="X1" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>700</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -8668,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.130581</v>
+        <v>0.13153899999999999</v>
       </c>
       <c r="D2">
         <v>0.13061800000000001</v>
@@ -8686,16 +12617,64 @@
         <v>0.162526</v>
       </c>
       <c r="I2">
-        <v>0.163911</v>
+        <v>0.164078</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>0.131609</v>
+      </c>
+      <c r="N2">
+        <v>0.13111300000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.131273</v>
+      </c>
+      <c r="P2">
+        <v>0.13125500000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.131246</v>
+      </c>
+      <c r="R2">
+        <v>0.13103699999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.13927899999999999</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.13081799999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.130743</v>
+      </c>
+      <c r="Y2">
+        <v>0.13103200000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.13156999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.131081</v>
+      </c>
+      <c r="AB2">
+        <v>0.13098799999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.13141700000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -8723,8 +12702,11 @@
       <c r="L3" t="s">
         <v>1</v>
       </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -8752,8 +12734,11 @@
       <c r="L4" t="s">
         <v>3</v>
       </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -8776,33 +12761,85 @@
         <v>0.140625</v>
       </c>
       <c r="I5">
-        <v>0.15316099999999999</v>
+        <v>0.15118899999999999</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
+      <c r="M5">
+        <v>0.13053500000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.130659</v>
+      </c>
+      <c r="O5">
+        <v>0.13064400000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.13087499999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.13092699999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.13161600000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.131024</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>0.13126299999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.131023</v>
+      </c>
+      <c r="Y5">
+        <v>0.13100400000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.13092899999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.13112199999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.13129399999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.13104299999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="L6" t="s">
         <v>5</v>
       </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
       </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -8851,8 +12888,32 @@
       <c r="S9" s="1">
         <v>1000</v>
       </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>400</v>
+      </c>
+      <c r="X9" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>700</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -8866,7 +12927,7 @@
         <v>0.14188300000000001</v>
       </c>
       <c r="E10">
-        <v>0.15132899999999999</v>
+        <v>0.15087200000000001</v>
       </c>
       <c r="F10">
         <v>0.15685199999999999</v>
@@ -8878,16 +12939,64 @@
         <v>0.15034600000000001</v>
       </c>
       <c r="I10">
-        <v>0.15357599999999999</v>
+        <v>0.15207100000000001</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>0.12862000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.128665</v>
+      </c>
+      <c r="O10">
+        <v>0.13037199999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.13832800000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.14865200000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.15185899999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.15626699999999999</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.128331</v>
+      </c>
+      <c r="X10">
+        <v>0.12831000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.12920300000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.12876000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.130023</v>
+      </c>
+      <c r="AB10">
+        <v>0.13636999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.14061299999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8915,8 +13024,11 @@
       <c r="L11" t="s">
         <v>1</v>
       </c>
+      <c r="V11" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -8944,8 +13056,11 @@
       <c r="L12" t="s">
         <v>3</v>
       </c>
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -8962,10 +13077,10 @@
         <v>0.148675</v>
       </c>
       <c r="G13">
-        <v>0.16577600000000001</v>
+        <v>0.16695299999999999</v>
       </c>
       <c r="H13">
-        <v>0.18648999999999999</v>
+        <v>0.18564600000000001</v>
       </c>
       <c r="I13">
         <v>0.204014</v>
@@ -8973,28 +13088,80 @@
       <c r="L13" t="s">
         <v>4</v>
       </c>
+      <c r="M13">
+        <v>0.12837000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.12870899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.129053</v>
+      </c>
+      <c r="P13">
+        <v>0.12934000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.131687</v>
+      </c>
+      <c r="R13">
+        <v>0.135411</v>
+      </c>
+      <c r="S13">
+        <v>0.14255799999999999</v>
+      </c>
+      <c r="V13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>0.128577</v>
+      </c>
+      <c r="X13">
+        <v>0.12847</v>
+      </c>
+      <c r="Y13">
+        <v>0.128413</v>
+      </c>
+      <c r="Z13">
+        <v>0.12912000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.128854</v>
+      </c>
+      <c r="AB13">
+        <v>0.12919700000000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.12986600000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="L14" t="s">
         <v>5</v>
       </c>
+      <c r="V14" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="L15" t="s">
         <v>6</v>
       </c>
+      <c r="V15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="K16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -9043,8 +13210,32 @@
       <c r="S18" s="1">
         <v>1000</v>
       </c>
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>400</v>
+      </c>
+      <c r="X18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>700</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>900</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -9073,13 +13264,61 @@
         <v>0.17357</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>0.13795399999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.13769700000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.14000299999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.17585700000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.17267299999999999</v>
+      </c>
+      <c r="S19">
+        <v>0.176368</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.13778000000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.13791800000000001</v>
+      </c>
+      <c r="Y19">
+        <v>0.13859099999999999</v>
+      </c>
+      <c r="Z19">
+        <v>0.13783699999999999</v>
+      </c>
+      <c r="AA19">
+        <v>0.13993900000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.152832</v>
+      </c>
+      <c r="AC19">
+        <v>0.16253500000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -9107,8 +13346,11 @@
       <c r="L20" t="s">
         <v>1</v>
       </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>3</v>
       </c>
@@ -9136,8 +13378,11 @@
       <c r="L21" t="s">
         <v>3</v>
       </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -9151,10 +13396,10 @@
         <v>0.149367</v>
       </c>
       <c r="F22">
-        <v>0.169964</v>
+        <v>0.16839399999999999</v>
       </c>
       <c r="G22">
-        <v>0.19021399999999999</v>
+        <v>0.19209100000000001</v>
       </c>
       <c r="H22">
         <v>0.21584700000000001</v>
@@ -9165,31 +13410,55 @@
       <c r="L22" t="s">
         <v>4</v>
       </c>
+      <c r="M22">
+        <v>0.13710900000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.137348</v>
+      </c>
+      <c r="O22">
+        <v>0.13736300000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.13914299999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.14136699999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.14444299999999999</v>
+      </c>
+      <c r="S22">
+        <v>0.14908299999999999</v>
+      </c>
+      <c r="V22" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>0.13733999999999999</v>
+      </c>
+      <c r="X22">
+        <v>0.137684</v>
+      </c>
+      <c r="Y22">
+        <v>0.13793900000000001</v>
+      </c>
+      <c r="Z22">
+        <v>0.13819899999999999</v>
+      </c>
+      <c r="AA22">
+        <v>0.138043</v>
+      </c>
+      <c r="AB22">
+        <v>0.13847100000000001</v>
+      </c>
+      <c r="AC22">
+        <v>0.139103</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
-      </c>
-      <c r="C23">
-        <v>0.14058399999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.16157199999999999</v>
-      </c>
-      <c r="E23">
-        <v>0.23114799999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.29735</v>
-      </c>
-      <c r="G23">
-        <v>0.34867599999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.396592</v>
-      </c>
-      <c r="I23">
-        <v>0.43452800000000003</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF33E1-9F38-41B0-B601-DBB96C563453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCEE56-C3A1-42C2-8633-F821C528A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="1620" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2669,6 +2669,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.105656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10277600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.103781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10417800000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2754,6 +2775,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.00391E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4248999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0057099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01218E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9318300000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9248800000000005E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3390,6 +3432,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.104777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.103796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11143599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12381499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15978000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18734999999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3475,6 +3538,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.07691E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.78242E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8861299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0085E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.04961E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00135E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07203E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4111,6 +4195,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.10528800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10538699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.174066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22222800000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4196,6 +4301,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.09739E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9340399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0457599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07098E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0380800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.07487E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0317700000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4832,6 +4958,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.106964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10442899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10213700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.100531</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4917,6 +5064,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0481900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0956E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04984E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0231499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01523E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8210799999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0208200000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5553,6 +5721,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.105074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.103905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10272299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.106307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.106235</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5638,6 +5827,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.7607000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08016E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9507899999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0640500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0692500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0682199999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6274,6 +6484,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.106354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10458099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10111000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6359,6 +6590,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.01008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01146E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3607399999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0195900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8071800000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9193900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0633099999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12505,8 +12757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="S37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12702,8 +12954,50 @@
       <c r="L3" t="s">
         <v>1</v>
       </c>
+      <c r="M3">
+        <v>0.105656</v>
+      </c>
+      <c r="N3">
+        <v>0.105041</v>
+      </c>
+      <c r="O3">
+        <v>0.103753</v>
+      </c>
+      <c r="P3">
+        <v>0.10277600000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.102285</v>
+      </c>
+      <c r="R3">
+        <v>0.103781</v>
+      </c>
+      <c r="S3">
+        <v>0.10417800000000001</v>
+      </c>
       <c r="V3" t="s">
         <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0.106964</v>
+      </c>
+      <c r="X3">
+        <v>0.10442899999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.105349</v>
+      </c>
+      <c r="Z3">
+        <v>0.10549</v>
+      </c>
+      <c r="AA3">
+        <v>0.104875</v>
+      </c>
+      <c r="AB3">
+        <v>0.10213700000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.100531</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -12734,8 +13028,50 @@
       <c r="L4" t="s">
         <v>3</v>
       </c>
+      <c r="M4">
+        <v>1.00391E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.4248999999999999E-3</v>
+      </c>
+      <c r="O4">
+        <v>1.0057099999999999E-2</v>
+      </c>
+      <c r="P4">
+        <v>1.07125E-2</v>
+      </c>
+      <c r="Q4">
+        <v>1.01218E-2</v>
+      </c>
+      <c r="R4">
+        <v>9.9318300000000009E-3</v>
+      </c>
+      <c r="S4">
+        <v>9.9248800000000005E-3</v>
+      </c>
       <c r="V4" t="s">
         <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1.0481900000000001E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.0956E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.04984E-2</v>
+      </c>
+      <c r="Z4">
+        <v>1.0231499999999999E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.01523E-2</v>
+      </c>
+      <c r="AB4">
+        <v>9.8210799999999994E-3</v>
+      </c>
+      <c r="AC4">
+        <v>1.0208200000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -13024,8 +13360,50 @@
       <c r="L11" t="s">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>0.104777</v>
+      </c>
+      <c r="N11">
+        <v>0.103796</v>
+      </c>
+      <c r="O11">
+        <v>0.103936</v>
+      </c>
+      <c r="P11">
+        <v>0.11143599999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.12381499999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.15978000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.18734999999999999</v>
+      </c>
       <c r="V11" t="s">
         <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0.105074</v>
+      </c>
+      <c r="X11">
+        <v>0.103905</v>
+      </c>
+      <c r="Y11">
+        <v>0.10272299999999999</v>
+      </c>
+      <c r="Z11">
+        <v>0.10295</v>
+      </c>
+      <c r="AA11">
+        <v>0.104112</v>
+      </c>
+      <c r="AB11">
+        <v>0.106307</v>
+      </c>
+      <c r="AC11">
+        <v>0.106235</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -13056,8 +13434,50 @@
       <c r="L12" t="s">
         <v>3</v>
       </c>
+      <c r="M12">
+        <v>1.07691E-2</v>
+      </c>
+      <c r="N12">
+        <v>9.78242E-3</v>
+      </c>
+      <c r="O12">
+        <v>9.8861299999999999E-3</v>
+      </c>
+      <c r="P12">
+        <v>1.0085E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.04961E-2</v>
+      </c>
+      <c r="R12">
+        <v>1.00135E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.07203E-2</v>
+      </c>
       <c r="V12" t="s">
         <v>3</v>
+      </c>
+      <c r="W12">
+        <v>9.7607000000000006E-3</v>
+      </c>
+      <c r="X12">
+        <v>1.08016E-2</v>
+      </c>
+      <c r="Y12">
+        <v>9.9507899999999993E-3</v>
+      </c>
+      <c r="Z12">
+        <v>1.1001E-2</v>
+      </c>
+      <c r="AA12">
+        <v>1.0640500000000001E-2</v>
+      </c>
+      <c r="AB12">
+        <v>1.0692500000000001E-2</v>
+      </c>
+      <c r="AC12">
+        <v>1.0682199999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -13346,8 +13766,50 @@
       <c r="L20" t="s">
         <v>1</v>
       </c>
+      <c r="M20">
+        <v>0.10528800000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.10538699999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.102245</v>
+      </c>
+      <c r="P20">
+        <v>0.100969</v>
+      </c>
+      <c r="Q20">
+        <v>0.110317</v>
+      </c>
+      <c r="R20">
+        <v>0.174066</v>
+      </c>
+      <c r="S20">
+        <v>0.22222800000000001</v>
+      </c>
       <c r="V20" t="s">
         <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0.106354</v>
+      </c>
+      <c r="X20">
+        <v>0.104517</v>
+      </c>
+      <c r="Y20">
+        <v>0.103619</v>
+      </c>
+      <c r="Z20">
+        <v>0.10458099999999999</v>
+      </c>
+      <c r="AA20">
+        <v>0.101177</v>
+      </c>
+      <c r="AB20">
+        <v>0.102018</v>
+      </c>
+      <c r="AC20">
+        <v>0.10111000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -13378,8 +13840,50 @@
       <c r="L21" t="s">
         <v>3</v>
       </c>
+      <c r="M21">
+        <v>1.09739E-2</v>
+      </c>
+      <c r="N21">
+        <v>9.9340399999999999E-3</v>
+      </c>
+      <c r="O21">
+        <v>1.0457599999999999E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.07098E-2</v>
+      </c>
+      <c r="Q21">
+        <v>1.0380800000000001E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.07487E-2</v>
+      </c>
+      <c r="S21">
+        <v>1.0317700000000001E-2</v>
+      </c>
       <c r="V21" t="s">
         <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.01008E-2</v>
+      </c>
+      <c r="X21">
+        <v>1.01146E-2</v>
+      </c>
+      <c r="Y21">
+        <v>9.3607399999999993E-3</v>
+      </c>
+      <c r="Z21">
+        <v>1.0195900000000001E-2</v>
+      </c>
+      <c r="AA21">
+        <v>9.8071800000000004E-3</v>
+      </c>
+      <c r="AB21">
+        <v>9.9193900000000002E-3</v>
+      </c>
+      <c r="AC21">
+        <v>1.0633099999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCEE56-C3A1-42C2-8633-F821C528A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189128DD-E56B-4EA4-B00C-AE7E91DA3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1620" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -760,6 +773,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -883,7 +897,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -937,1532 +951,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.12992200000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14188300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15087200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15685199999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14697299999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15034600000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15207100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-026F-477A-BCEE-B07DBFB10EA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.107534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11640399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16121099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20531099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25855299999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31025199999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35105500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-026F-477A-BCEE-B07DBFB10EA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.8649400000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0251E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7213300000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.03277E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.31687E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.30638E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7319299999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-026F-477A-BCEE-B07DBFB10EA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.128249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.130608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13522600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.148675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16695299999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18564600000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.204014</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-026F-477A-BCEE-B07DBFB10EA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355063976"/>
-        <c:axId val="355058488"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355063976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355058488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355058488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>packet loss rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355063976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.14061999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16262499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17158300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17336799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.173266</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17584</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17357</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05FB-4E3B-95D5-E72812927595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.106298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.121374</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18332300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.248416</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31564999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.36044599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40011999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-05FB-4E3B-95D5-E72812927595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$21:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0352999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.07463E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8156600000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.05244E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.16066E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.69032E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3820999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-05FB-4E3B-95D5-E72812927595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.13719300000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.140961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.149367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16839399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19209100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21584700000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24287500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-05FB-4E3B-95D5-E72812927595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355063976"/>
-        <c:axId val="355058488"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355063976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355058488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355058488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>packet loss rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355063976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3049,6 +1537,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3172,7 +1661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3225,7 +1714,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3812,6 +2301,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3935,7 +2425,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3988,7 +2478,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4575,6 +3065,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4698,7 +3189,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4751,7 +3242,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5338,6 +3829,7 @@
         <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5461,1533 +3953,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$10:$AC$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.128331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12831000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12920300000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12876000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.130023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13636999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14061299999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71B9-49F0-AD9F-02C22053A650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$11:$AC$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.105074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.103905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10272299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.104112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.106307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.106235</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71B9-49F0-AD9F-02C22053A650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$12:$AC$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.7607000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.08016E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9507899999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0640500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0692500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0682199999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71B9-49F0-AD9F-02C22053A650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$9:$AC$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$13:$AC$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.128577</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12847</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.128413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12912000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.128854</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12919700000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12986600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-71B9-49F0-AD9F-02C22053A650}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355063976"/>
-        <c:axId val="355058488"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355063976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355058488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355058488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>packet loss rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355063976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$19:$AC$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.13778000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13791800000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13859099999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13783699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13993900000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.152832</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16253500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD8A-4045-99FD-7D7E71EAAF38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$20:$AC$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.106354</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.104517</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.103619</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10458099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.101177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.102018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10111000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BD8A-4045-99FD-7D7E71EAAF38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$21:$AC$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.01008E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.01146E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3607399999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0195900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8071800000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9193900000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0633099999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BD8A-4045-99FD-7D7E71EAAF38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$W$18:$AC$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$W$22:$AC$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.13733999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.137684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13793900000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13819899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.138043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13847100000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.139103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BD8A-4045-99FD-7D7E71EAAF38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="355063976"/>
-        <c:axId val="355058488"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="355063976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>感測器總數</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355058488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="355058488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>packet loss rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="355063976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7240,166 +4206,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -9485,2090 +6291,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12129,23 +6851,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300468</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
+      <xdr:rowOff>62346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571163</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>263236</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>158460</xdr:rowOff>
+      <xdr:rowOff>109970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
+        <xdr:cNvPr id="10" name="圖表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F7ABF9-8527-4A01-B688-DA509F351734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F5E6C-2E9B-45A5-A115-4E4029CE1BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12167,23 +6889,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>354106</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>39119</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>329300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>569787</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>294327</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>86744</xdr:rowOff>
+      <xdr:rowOff>35960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8">
+        <xdr:cNvPr id="11" name="圖表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AAB432-2429-4336-BA7F-68B9A882DF4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C060FBB5-06E2-4F59-A218-F45685EBAED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12205,92 +6927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>643368</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336329</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>186170</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F5E6C-2E9B-45A5-A115-4E4029CE1BE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>605525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>570552</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>93110</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="圖表 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C060FBB5-06E2-4F59-A218-F45685EBAED5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>631604</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642524</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>94741</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347249</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>189991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12311,7 +6957,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12349,83 +6995,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>204405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>603763</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>44210</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="圖表 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EFAD2E-0606-43EB-A6CE-18D3F559A955}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>664815</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>211127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>675735</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>45841</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="圖表 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44CBA6A-F588-4E56-B144-5B04BF9C55B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12435,9 +7005,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12475,9 +7045,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12510,26 +7080,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12562,26 +7115,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12757,8 +7293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19:AC22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13891,25 +8427,25 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.13719300000000001</v>
+        <v>0.13747100000000001</v>
       </c>
       <c r="D22">
-        <v>0.140961</v>
+        <v>0.14127799999999999</v>
       </c>
       <c r="E22">
-        <v>0.149367</v>
+        <v>0.14977799999999999</v>
       </c>
       <c r="F22">
-        <v>0.16839399999999999</v>
+        <v>0.168964</v>
       </c>
       <c r="G22">
-        <v>0.19209100000000001</v>
+        <v>0.19237099999999999</v>
       </c>
       <c r="H22">
-        <v>0.21584700000000001</v>
+        <v>0.214952</v>
       </c>
       <c r="I22">
-        <v>0.24287500000000001</v>
+        <v>0.23361599999999999</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -1,29 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189128DD-E56B-4EA4-B00C-AE7E91DA3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D31BE4-0DB4-4028-85E3-3D0A161DE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -110,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +126,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,10 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -606,25 +613,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13069</c:v>
+                  <c:v>0.13080800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13092999999999999</c:v>
+                  <c:v>0.13075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13051299999999999</c:v>
+                  <c:v>0.13090099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13179099999999999</c:v>
+                  <c:v>0.13211100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13498499999999999</c:v>
+                  <c:v>0.13608500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.140625</c:v>
+                  <c:v>0.14072799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15118899999999999</c:v>
+                  <c:v>0.15295600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,25 +1377,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13053500000000001</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130659</c:v>
+                  <c:v>0.131193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13064400000000001</c:v>
+                  <c:v>0.13084899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13087499999999999</c:v>
+                  <c:v>0.131055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13092699999999999</c:v>
+                  <c:v>0.13080600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13161600000000001</c:v>
+                  <c:v>0.13086500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.131024</c:v>
+                  <c:v>0.13123099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,25 +2141,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12837000000000001</c:v>
+                  <c:v>0.128662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12870899999999999</c:v>
+                  <c:v>0.12834499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129053</c:v>
+                  <c:v>0.12853200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12934000000000001</c:v>
+                  <c:v>0.12914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.131687</c:v>
+                  <c:v>0.13138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.135411</c:v>
+                  <c:v>0.13652300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14255799999999999</c:v>
+                  <c:v>0.14293700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,25 +2905,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13710900000000001</c:v>
+                  <c:v>0.13738500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.137348</c:v>
+                  <c:v>0.136966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13736300000000001</c:v>
+                  <c:v>0.137409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13914299999999999</c:v>
+                  <c:v>0.13756099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14136699999999999</c:v>
+                  <c:v>0.139267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14444299999999999</c:v>
+                  <c:v>0.142017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14908299999999999</c:v>
+                  <c:v>0.14538400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,25 +3669,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13126299999999999</c:v>
+                  <c:v>0.130079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.131023</c:v>
+                  <c:v>0.13069600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13100400000000001</c:v>
+                  <c:v>0.13092500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13092899999999999</c:v>
+                  <c:v>0.13097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13112199999999999</c:v>
+                  <c:v>0.131163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13129399999999999</c:v>
+                  <c:v>0.131495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13104299999999999</c:v>
+                  <c:v>0.1313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,9 +7012,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7045,9 +7052,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7080,9 +7087,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7115,9 +7139,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7293,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7306,382 +7347,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
         <v>400</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>500</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>600</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>700</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>800</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>900</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>1000</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4">
         <v>400</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="4">
         <v>500</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="4">
         <v>600</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="4">
         <v>700</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="4">
         <v>800</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="4">
         <v>900</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="4">
         <v>1000</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1">
+      <c r="V1" s="3"/>
+      <c r="W1" s="4">
         <v>400</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="4">
         <v>500</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="4">
         <v>600</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="4">
         <v>700</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="4">
         <v>800</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="4">
         <v>900</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.13153899999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.13061800000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.13101599999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.145591</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.16186900000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.162526</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.164078</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.131609</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.13111300000000001</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.131273</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>0.13125500000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>0.131246</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.13103699999999999</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>0.13927899999999999</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>0.13081799999999999</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>0.130743</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>0.13103200000000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>0.13156999999999999</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>0.131081</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>0.13098799999999999</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>0.13141700000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.104574</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.10448200000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.10424600000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.110309</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.10477</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.15140600000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.21884200000000001</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.105656</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.105041</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.103753</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>0.10277600000000001</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>0.102285</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>0.103781</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>0.10417800000000001</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>0.106964</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>0.10442899999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>0.105349</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="3">
         <v>0.10549</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>0.104875</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="3">
         <v>0.10213700000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>0.100531</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1.0493000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>9.8917799999999993E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1.07186E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>9.8794599999999996E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1.3039500000000001E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1.3177400000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.8726300000000001E-2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>1.00391E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>9.4248999999999999E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>1.0057099999999999E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1.07125E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1.01218E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>9.9318300000000009E-3</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>9.9248800000000005E-3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>1.0481900000000001E-2</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="3">
         <v>1.0956E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>1.04984E-2</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>1.0231499999999999E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="3">
         <v>1.01523E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="3">
         <v>9.8210799999999994E-3</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="3">
         <v>1.0208200000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0.13069</v>
-      </c>
-      <c r="D5">
-        <v>0.13092999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.13051299999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.13179099999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.13498499999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.140625</v>
-      </c>
-      <c r="I5">
-        <v>0.15118899999999999</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="C5" s="3">
+        <v>0.13080800000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.13075999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.13090099999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13211100000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.13608500000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.14072799999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.15295600000000001</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0.13053500000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.130659</v>
-      </c>
-      <c r="O5">
-        <v>0.13064400000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.13087499999999999</v>
-      </c>
-      <c r="Q5">
-        <v>0.13092699999999999</v>
-      </c>
-      <c r="R5">
-        <v>0.13161600000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.131024</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="M5" s="3">
+        <v>0.13095499999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.131193</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.13084899999999999</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.131055</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.13080600000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.13086500000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.13123099999999999</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>0.13126299999999999</v>
-      </c>
-      <c r="X5">
-        <v>0.131023</v>
-      </c>
-      <c r="Y5">
-        <v>0.13100400000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.13092899999999999</v>
-      </c>
-      <c r="AA5">
-        <v>0.13112199999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.13129399999999999</v>
-      </c>
-      <c r="AC5">
-        <v>0.13104299999999999</v>
+      <c r="W5" s="3">
+        <v>0.130079</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.13069600000000001</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.13092500000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.13097</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.131163</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.131495</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.1313</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -7736,28 +7789,29 @@
       <c r="I9" s="1">
         <v>1000</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
         <v>400</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>500</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>600</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>700</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>800</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>900</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1000</v>
       </c>
       <c r="U9" t="s">
@@ -7813,31 +7867,31 @@
       <c r="I10">
         <v>0.15207100000000001</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.12862000000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.128665</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.13037199999999999</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>0.13832800000000001</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>0.14865200000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>0.15185899999999999</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>0.15626699999999999</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -7893,28 +7947,29 @@
       <c r="I11">
         <v>0.35105500000000001</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.104777</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.103796</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>0.103936</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0.11143599999999999</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>0.12381499999999999</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>0.15978000000000001</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>0.18734999999999999</v>
       </c>
       <c r="V11" t="s">
@@ -7967,28 +8022,29 @@
       <c r="I12">
         <v>1.7319299999999999E-2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>1.07691E-2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>9.78242E-3</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>9.8861299999999999E-3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>1.0085E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>1.04961E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>1.00135E-2</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>1.07203E-2</v>
       </c>
       <c r="V12" t="s">
@@ -8041,29 +8097,30 @@
       <c r="I13">
         <v>0.204014</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>0.12837000000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.12870899999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.129053</v>
-      </c>
-      <c r="P13">
-        <v>0.12934000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>0.131687</v>
-      </c>
-      <c r="R13">
-        <v>0.135411</v>
-      </c>
-      <c r="S13">
-        <v>0.14255799999999999</v>
+      <c r="M13" s="3">
+        <v>0.128662</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.12834499999999999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.12853200000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.12914999999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.13138</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.13652300000000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.14293700000000001</v>
       </c>
       <c r="V13" t="s">
         <v>4</v>
@@ -8142,28 +8199,29 @@
       <c r="I18" s="1">
         <v>1000</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
         <v>400</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <v>500</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>600</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>700</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>800</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>900</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1000</v>
       </c>
       <c r="U18" t="s">
@@ -8219,31 +8277,31 @@
       <c r="I19">
         <v>0.17357</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.13795399999999999</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.13769700000000001</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.14000299999999999</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>0.15609999999999999</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>0.17585700000000001</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>0.17267299999999999</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>0.176368</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -8299,28 +8357,29 @@
       <c r="I20">
         <v>0.40011999999999998</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.10528800000000001</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.10538699999999999</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>0.102245</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>0.100969</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>0.110317</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>0.174066</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>0.22222800000000001</v>
       </c>
       <c r="V20" t="s">
@@ -8373,28 +8432,29 @@
       <c r="I21">
         <v>2.3820999999999998E-2</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>1.09739E-2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>9.9340399999999999E-3</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>1.0457599999999999E-2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>1.07098E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>1.0380800000000001E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>1.07487E-2</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>1.0317700000000001E-2</v>
       </c>
       <c r="V21" t="s">
@@ -8447,29 +8507,30 @@
       <c r="I22">
         <v>0.23361599999999999</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0.13710900000000001</v>
-      </c>
-      <c r="N22">
-        <v>0.137348</v>
-      </c>
-      <c r="O22">
-        <v>0.13736300000000001</v>
-      </c>
-      <c r="P22">
-        <v>0.13914299999999999</v>
-      </c>
-      <c r="Q22">
-        <v>0.14136699999999999</v>
-      </c>
-      <c r="R22">
-        <v>0.14444299999999999</v>
-      </c>
-      <c r="S22">
-        <v>0.14908299999999999</v>
+      <c r="M22" s="3">
+        <v>0.13738500000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.136966</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.137409</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.13756099999999999</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.139267</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.142017</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.14538400000000001</v>
       </c>
       <c r="V22" t="s">
         <v>4</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D31BE4-0DB4-4028-85E3-3D0A161DE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C652704-0B4C-4485-86DB-B31B42D4EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.131609</c:v>
+                  <c:v>0.13117899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13111300000000001</c:v>
@@ -1077,7 +1077,7 @@
                   <c:v>0.13103699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13927899999999999</c:v>
+                  <c:v>0.138682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,13 +3351,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13081799999999999</c:v>
+                  <c:v>0.13159799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130743</c:v>
+                  <c:v>0.13105900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13103200000000001</c:v>
+                  <c:v>0.13122500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13156999999999999</c:v>
@@ -3369,7 +3369,7 @@
                   <c:v>0.13098799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13141700000000001</c:v>
+                  <c:v>0.13128899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7334,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3">
-        <v>0.131609</v>
+        <v>0.13117899999999999</v>
       </c>
       <c r="N2" s="3">
         <v>0.13111300000000001</v>
@@ -7476,7 +7476,7 @@
         <v>0.13103699999999999</v>
       </c>
       <c r="S2" s="3">
-        <v>0.13927899999999999</v>
+        <v>0.138682</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>13</v>
@@ -7485,13 +7485,13 @@
         <v>0</v>
       </c>
       <c r="W2" s="3">
-        <v>0.13081799999999999</v>
+        <v>0.13159799999999999</v>
       </c>
       <c r="X2" s="3">
-        <v>0.130743</v>
+        <v>0.13105900000000001</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.13103200000000001</v>
+        <v>0.13122500000000001</v>
       </c>
       <c r="Z2" s="3">
         <v>0.13156999999999999</v>
@@ -7503,7 +7503,7 @@
         <v>0.13098799999999999</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.13141700000000001</v>
+        <v>0.13128899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -1,29 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189128DD-E56B-4EA4-B00C-AE7E91DA3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C652704-0B4C-4485-86DB-B31B42D4EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -110,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +126,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,10 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -606,25 +613,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13069</c:v>
+                  <c:v>0.13080800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13092999999999999</c:v>
+                  <c:v>0.13075999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13051299999999999</c:v>
+                  <c:v>0.13090099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13179099999999999</c:v>
+                  <c:v>0.13211100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13498499999999999</c:v>
+                  <c:v>0.13608500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.140625</c:v>
+                  <c:v>0.14072799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15118899999999999</c:v>
+                  <c:v>0.15295600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1059,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.131609</c:v>
+                  <c:v>0.13117899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13111300000000001</c:v>
@@ -1070,7 +1077,7 @@
                   <c:v>0.13103699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13927899999999999</c:v>
+                  <c:v>0.138682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,25 +1377,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13053500000000001</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130659</c:v>
+                  <c:v>0.131193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13064400000000001</c:v>
+                  <c:v>0.13084899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13087499999999999</c:v>
+                  <c:v>0.131055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13092699999999999</c:v>
+                  <c:v>0.13080600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13161600000000001</c:v>
+                  <c:v>0.13086500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.131024</c:v>
+                  <c:v>0.13123099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,25 +2141,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12837000000000001</c:v>
+                  <c:v>0.128662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12870899999999999</c:v>
+                  <c:v>0.12834499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129053</c:v>
+                  <c:v>0.12853200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12934000000000001</c:v>
+                  <c:v>0.12914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.131687</c:v>
+                  <c:v>0.13138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.135411</c:v>
+                  <c:v>0.13652300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14255799999999999</c:v>
+                  <c:v>0.14293700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,25 +2905,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13710900000000001</c:v>
+                  <c:v>0.13738500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.137348</c:v>
+                  <c:v>0.136966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13736300000000001</c:v>
+                  <c:v>0.137409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13914299999999999</c:v>
+                  <c:v>0.13756099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14136699999999999</c:v>
+                  <c:v>0.139267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14444299999999999</c:v>
+                  <c:v>0.142017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14908299999999999</c:v>
+                  <c:v>0.14538400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,13 +3351,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13081799999999999</c:v>
+                  <c:v>0.13159799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130743</c:v>
+                  <c:v>0.13105900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13103200000000001</c:v>
+                  <c:v>0.13122500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13156999999999999</c:v>
@@ -3362,7 +3369,7 @@
                   <c:v>0.13098799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13141700000000001</c:v>
+                  <c:v>0.13128899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,25 +3669,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13126299999999999</c:v>
+                  <c:v>0.130079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.131023</c:v>
+                  <c:v>0.13069600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13100400000000001</c:v>
+                  <c:v>0.13092500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13092899999999999</c:v>
+                  <c:v>0.13097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13112199999999999</c:v>
+                  <c:v>0.131163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13129399999999999</c:v>
+                  <c:v>0.131495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13104299999999999</c:v>
+                  <c:v>0.1313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,9 +7012,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7045,9 +7052,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7080,9 +7087,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7115,9 +7139,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7293,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7306,382 +7347,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4">
         <v>400</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>500</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>600</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>700</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>800</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>900</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>1000</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4">
         <v>400</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="4">
         <v>500</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="4">
         <v>600</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="4">
         <v>700</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="4">
         <v>800</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="4">
         <v>900</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="4">
         <v>1000</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="1">
+      <c r="V1" s="3"/>
+      <c r="W1" s="4">
         <v>400</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="4">
         <v>500</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="4">
         <v>600</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="4">
         <v>700</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="4">
         <v>800</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="4">
         <v>900</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.13153899999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.13061800000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.13101599999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.145591</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.16186900000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.162526</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0.164078</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0.131609</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="3">
+        <v>0.13117899999999999</v>
+      </c>
+      <c r="N2" s="3">
         <v>0.13111300000000001</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>0.131273</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>0.13125500000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>0.131246</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.13103699999999999</v>
       </c>
-      <c r="S2">
-        <v>0.13927899999999999</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="S2" s="3">
+        <v>0.138682</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0.13081799999999999</v>
-      </c>
-      <c r="X2">
-        <v>0.130743</v>
-      </c>
-      <c r="Y2">
-        <v>0.13103200000000001</v>
-      </c>
-      <c r="Z2">
+      <c r="W2" s="3">
+        <v>0.13159799999999999</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.13105900000000001</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.13122500000000001</v>
+      </c>
+      <c r="Z2" s="3">
         <v>0.13156999999999999</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>0.131081</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>0.13098799999999999</v>
       </c>
-      <c r="AC2">
-        <v>0.13141700000000001</v>
+      <c r="AC2" s="3">
+        <v>0.13128899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.104574</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.10448200000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.10424600000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.110309</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.10477</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.15140600000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.21884200000000001</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>0.105656</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.105041</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>0.103753</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>0.10277600000000001</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>0.102285</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>0.103781</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>0.10417800000000001</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>0.106964</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>0.10442899999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>0.105349</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="3">
         <v>0.10549</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>0.104875</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="3">
         <v>0.10213700000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>0.100531</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1.0493000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>9.8917799999999993E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1.07186E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>9.8794599999999996E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1.3039500000000001E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1.3177400000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.8726300000000001E-2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>1.00391E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>9.4248999999999999E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>1.0057099999999999E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1.07125E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1.01218E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>9.9318300000000009E-3</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>9.9248800000000005E-3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>1.0481900000000001E-2</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="3">
         <v>1.0956E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>1.04984E-2</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>1.0231499999999999E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="3">
         <v>1.01523E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="3">
         <v>9.8210799999999994E-3</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="3">
         <v>1.0208200000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0.13069</v>
-      </c>
-      <c r="D5">
-        <v>0.13092999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.13051299999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.13179099999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.13498499999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.140625</v>
-      </c>
-      <c r="I5">
-        <v>0.15118899999999999</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="C5" s="3">
+        <v>0.13080800000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.13075999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.13090099999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13211100000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.13608500000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.14072799999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.15295600000000001</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0.13053500000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.130659</v>
-      </c>
-      <c r="O5">
-        <v>0.13064400000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.13087499999999999</v>
-      </c>
-      <c r="Q5">
-        <v>0.13092699999999999</v>
-      </c>
-      <c r="R5">
-        <v>0.13161600000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.131024</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="M5" s="3">
+        <v>0.13095499999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.131193</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.13084899999999999</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.131055</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.13080600000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.13086500000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.13123099999999999</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>0.13126299999999999</v>
-      </c>
-      <c r="X5">
-        <v>0.131023</v>
-      </c>
-      <c r="Y5">
-        <v>0.13100400000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.13092899999999999</v>
-      </c>
-      <c r="AA5">
-        <v>0.13112199999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.13129399999999999</v>
-      </c>
-      <c r="AC5">
-        <v>0.13104299999999999</v>
+      <c r="W5" s="3">
+        <v>0.130079</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.13069600000000001</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.13092500000000001</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.13097</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.131163</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.131495</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.1313</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -7736,28 +7789,29 @@
       <c r="I9" s="1">
         <v>1000</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
         <v>400</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>500</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>600</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>700</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>800</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>900</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1000</v>
       </c>
       <c r="U9" t="s">
@@ -7813,31 +7867,31 @@
       <c r="I10">
         <v>0.15207100000000001</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>0.12862000000000001</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.128665</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>0.13037199999999999</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>0.13832800000000001</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>0.14865200000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>0.15185899999999999</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>0.15626699999999999</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -7893,28 +7947,29 @@
       <c r="I11">
         <v>0.35105500000000001</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>0.104777</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.103796</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>0.103936</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0.11143599999999999</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>0.12381499999999999</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>0.15978000000000001</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>0.18734999999999999</v>
       </c>
       <c r="V11" t="s">
@@ -7967,28 +8022,29 @@
       <c r="I12">
         <v>1.7319299999999999E-2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>1.07691E-2</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>9.78242E-3</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>9.8861299999999999E-3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>1.0085E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>1.04961E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>1.00135E-2</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>1.07203E-2</v>
       </c>
       <c r="V12" t="s">
@@ -8041,29 +8097,30 @@
       <c r="I13">
         <v>0.204014</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>0.12837000000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.12870899999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.129053</v>
-      </c>
-      <c r="P13">
-        <v>0.12934000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>0.131687</v>
-      </c>
-      <c r="R13">
-        <v>0.135411</v>
-      </c>
-      <c r="S13">
-        <v>0.14255799999999999</v>
+      <c r="M13" s="3">
+        <v>0.128662</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.12834499999999999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.12853200000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.12914999999999999</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.13138</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.13652300000000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.14293700000000001</v>
       </c>
       <c r="V13" t="s">
         <v>4</v>
@@ -8142,28 +8199,29 @@
       <c r="I18" s="1">
         <v>1000</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
         <v>400</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <v>500</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>600</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>700</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>800</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>900</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1000</v>
       </c>
       <c r="U18" t="s">
@@ -8219,31 +8277,31 @@
       <c r="I19">
         <v>0.17357</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>0.13795399999999999</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.13769700000000001</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>0.14000299999999999</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>0.15609999999999999</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>0.17585700000000001</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>0.17267299999999999</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="3">
         <v>0.176368</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -8299,28 +8357,29 @@
       <c r="I20">
         <v>0.40011999999999998</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>0.10528800000000001</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.10538699999999999</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>0.102245</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>0.100969</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>0.110317</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>0.174066</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>0.22222800000000001</v>
       </c>
       <c r="V20" t="s">
@@ -8373,28 +8432,29 @@
       <c r="I21">
         <v>2.3820999999999998E-2</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>1.09739E-2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>9.9340399999999999E-3</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>1.0457599999999999E-2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>1.07098E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>1.0380800000000001E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>1.07487E-2</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>1.0317700000000001E-2</v>
       </c>
       <c r="V21" t="s">
@@ -8447,29 +8507,30 @@
       <c r="I22">
         <v>0.23361599999999999</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0.13710900000000001</v>
-      </c>
-      <c r="N22">
-        <v>0.137348</v>
-      </c>
-      <c r="O22">
-        <v>0.13736300000000001</v>
-      </c>
-      <c r="P22">
-        <v>0.13914299999999999</v>
-      </c>
-      <c r="Q22">
-        <v>0.14136699999999999</v>
-      </c>
-      <c r="R22">
-        <v>0.14444299999999999</v>
-      </c>
-      <c r="S22">
-        <v>0.14908299999999999</v>
+      <c r="M22" s="3">
+        <v>0.13738500000000001</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.136966</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.137409</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.13756099999999999</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.139267</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.142017</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.14538400000000001</v>
       </c>
       <c r="V22" t="s">
         <v>4</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C652704-0B4C-4485-86DB-B31B42D4EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1C62E-7403-4182-81A2-C34AB6AF2643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>special2 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,7 +1314,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3602,7 +3606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7334,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="H43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7663,7 +7667,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>0.13080800000000001</v>
@@ -7688,7 +7692,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3">
         <v>0.13095499999999999</v>
@@ -7713,7 +7717,7 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="W5" s="3">
         <v>0.130079</v>
@@ -8099,7 +8103,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M13" s="3">
         <v>0.128662</v>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M22" s="3">
         <v>0.13738500000000001</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1C62E-7403-4182-81A2-C34AB6AF2643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB0A65-0C4D-46D4-9F92-F62AEAFD278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -243,8 +243,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -353,8 +353,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -405,25 +405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104574</c:v>
+                  <c:v>0.12975400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10448200000000001</c:v>
+                  <c:v>0.132026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10424600000000001</c:v>
+                  <c:v>0.132716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.110309</c:v>
+                  <c:v>0.13769300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10477</c:v>
+                  <c:v>0.14674200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15140600000000001</c:v>
+                  <c:v>0.194386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21884200000000001</c:v>
+                  <c:v>0.25407099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,20 +667,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1169,25 +1155,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.105656</c:v>
+                  <c:v>0.12926099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.105041</c:v>
+                  <c:v>0.129166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103753</c:v>
+                  <c:v>0.13080600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10277600000000001</c:v>
+                  <c:v>0.13064700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.102285</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103781</c:v>
+                  <c:v>0.13262299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10417800000000001</c:v>
+                  <c:v>0.134021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,20 +1417,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1933,25 +1905,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104777</c:v>
+                  <c:v>0.12892500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.103796</c:v>
+                  <c:v>0.12864100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103936</c:v>
+                  <c:v>0.12897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11143599999999999</c:v>
+                  <c:v>0.14205699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12381499999999999</c:v>
+                  <c:v>0.141873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15978000000000001</c:v>
+                  <c:v>0.171878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18734999999999999</c:v>
+                  <c:v>0.200986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,7 +2050,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2195,20 +2167,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2697,25 +2655,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10528800000000001</c:v>
+                  <c:v>0.13783799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10538699999999999</c:v>
+                  <c:v>0.138715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.102245</c:v>
+                  <c:v>0.13980400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.100969</c:v>
+                  <c:v>0.13855400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.110317</c:v>
+                  <c:v>0.15459500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.174066</c:v>
+                  <c:v>0.207676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22222800000000001</c:v>
+                  <c:v>0.25411099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,7 +2800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2959,20 +2917,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3299,8 +3243,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -3409,8 +3353,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3461,25 +3405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.106964</c:v>
+                  <c:v>0.132993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10442899999999999</c:v>
+                  <c:v>0.132577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105349</c:v>
+                  <c:v>0.13206200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10549</c:v>
+                  <c:v>0.130853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.104875</c:v>
+                  <c:v>0.130388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10213700000000001</c:v>
+                  <c:v>0.131659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.100531</c:v>
+                  <c:v>0.13462499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,20 +3667,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -7338,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" topLeftCell="U7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7516,75 +7446,75 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.104574</v>
+        <v>0.12975400000000001</v>
       </c>
       <c r="D3" s="3">
-        <v>0.10448200000000001</v>
+        <v>0.132026</v>
       </c>
       <c r="E3" s="3">
-        <v>0.10424600000000001</v>
+        <v>0.132716</v>
       </c>
       <c r="F3" s="3">
-        <v>0.110309</v>
+        <v>0.13769300000000001</v>
       </c>
       <c r="G3" s="3">
-        <v>0.10477</v>
+        <v>0.14674200000000001</v>
       </c>
       <c r="H3" s="3">
-        <v>0.15140600000000001</v>
+        <v>0.194386</v>
       </c>
       <c r="I3" s="3">
-        <v>0.21884200000000001</v>
+        <v>0.25407099999999999</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>0.105656</v>
+        <v>0.12926099999999999</v>
       </c>
       <c r="N3" s="3">
-        <v>0.105041</v>
+        <v>0.129166</v>
       </c>
       <c r="O3" s="3">
-        <v>0.103753</v>
+        <v>0.13080600000000001</v>
       </c>
       <c r="P3" s="3">
-        <v>0.10277600000000001</v>
+        <v>0.13064700000000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.102285</v>
+        <v>0.13095499999999999</v>
       </c>
       <c r="R3" s="3">
-        <v>0.103781</v>
+        <v>0.13262299999999999</v>
       </c>
       <c r="S3" s="3">
-        <v>0.10417800000000001</v>
+        <v>0.134021</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W3" s="3">
-        <v>0.106964</v>
+        <v>0.132993</v>
       </c>
       <c r="X3" s="3">
-        <v>0.10442899999999999</v>
+        <v>0.132577</v>
       </c>
       <c r="Y3" s="3">
-        <v>0.105349</v>
+        <v>0.13206200000000001</v>
       </c>
       <c r="Z3" s="3">
-        <v>0.10549</v>
+        <v>0.130853</v>
       </c>
       <c r="AA3" s="3">
-        <v>0.104875</v>
+        <v>0.130388</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.10213700000000001</v>
+        <v>0.131659</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.100531</v>
+        <v>0.13462499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -7956,25 +7886,25 @@
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>0.104777</v>
+        <v>0.12892500000000001</v>
       </c>
       <c r="N11" s="3">
-        <v>0.103796</v>
+        <v>0.12864100000000001</v>
       </c>
       <c r="O11" s="3">
-        <v>0.103936</v>
+        <v>0.12897</v>
       </c>
       <c r="P11" s="3">
-        <v>0.11143599999999999</v>
+        <v>0.14205699999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.12381499999999999</v>
+        <v>0.141873</v>
       </c>
       <c r="R11" s="3">
-        <v>0.15978000000000001</v>
+        <v>0.171878</v>
       </c>
       <c r="S11" s="3">
-        <v>0.18734999999999999</v>
+        <v>0.200986</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -8077,8 +8007,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0.128249</v>
@@ -8366,25 +8296,25 @@
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>0.10528800000000001</v>
+        <v>0.13783799999999999</v>
       </c>
       <c r="N20" s="3">
-        <v>0.10538699999999999</v>
+        <v>0.138715</v>
       </c>
       <c r="O20" s="3">
-        <v>0.102245</v>
+        <v>0.13980400000000001</v>
       </c>
       <c r="P20" s="3">
-        <v>0.100969</v>
+        <v>0.13855400000000001</v>
       </c>
       <c r="Q20" s="3">
-        <v>0.110317</v>
+        <v>0.15459500000000001</v>
       </c>
       <c r="R20" s="3">
-        <v>0.174066</v>
+        <v>0.207676</v>
       </c>
       <c r="S20" s="3">
-        <v>0.22222800000000001</v>
+        <v>0.25411099999999998</v>
       </c>
       <c r="V20" t="s">
         <v>1</v>
@@ -8487,8 +8417,8 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>4</v>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0.13747100000000001</v>

--- a/test/output/mem_PLR.xlsx
+++ b/test/output/mem_PLR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C652704-0B4C-4485-86DB-B31B42D4EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FB0A65-0C4D-46D4-9F92-F62AEAFD278E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>E-DSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>special2 600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -239,8 +243,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -349,8 +353,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -401,25 +405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104574</c:v>
+                  <c:v>0.12975400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10448200000000001</c:v>
+                  <c:v>0.132026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10424600000000001</c:v>
+                  <c:v>0.132716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.110309</c:v>
+                  <c:v>0.13769300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10477</c:v>
+                  <c:v>0.14674200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15140600000000001</c:v>
+                  <c:v>0.194386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21884200000000001</c:v>
+                  <c:v>0.25407099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -663,20 +667,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1165,25 +1155,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.105656</c:v>
+                  <c:v>0.12926099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.105041</c:v>
+                  <c:v>0.129166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103753</c:v>
+                  <c:v>0.13080600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10277600000000001</c:v>
+                  <c:v>0.13064700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.102285</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103781</c:v>
+                  <c:v>0.13262299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10417800000000001</c:v>
+                  <c:v>0.134021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1427,20 +1417,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1929,25 +1905,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104777</c:v>
+                  <c:v>0.12892500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.103796</c:v>
+                  <c:v>0.12864100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103936</c:v>
+                  <c:v>0.12897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11143599999999999</c:v>
+                  <c:v>0.14205699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12381499999999999</c:v>
+                  <c:v>0.141873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15978000000000001</c:v>
+                  <c:v>0.171878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18734999999999999</c:v>
+                  <c:v>0.200986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,7 +2050,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2191,20 +2167,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2693,25 +2655,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10528800000000001</c:v>
+                  <c:v>0.13783799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10538699999999999</c:v>
+                  <c:v>0.138715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.102245</c:v>
+                  <c:v>0.13980400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.100969</c:v>
+                  <c:v>0.13855400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.110317</c:v>
+                  <c:v>0.15459500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.174066</c:v>
+                  <c:v>0.207676</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22222800000000001</c:v>
+                  <c:v>0.25411099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2838,7 +2800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2955,20 +2917,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3295,8 +3243,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -3405,8 +3353,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3457,25 +3405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.106964</c:v>
+                  <c:v>0.132993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10442899999999999</c:v>
+                  <c:v>0.132577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105349</c:v>
+                  <c:v>0.13206200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10549</c:v>
+                  <c:v>0.130853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.104875</c:v>
+                  <c:v>0.130388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10213700000000001</c:v>
+                  <c:v>0.131659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.100531</c:v>
+                  <c:v>0.13462499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3719,20 +3667,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -7334,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="U7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7512,75 +7446,75 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.104574</v>
+        <v>0.12975400000000001</v>
       </c>
       <c r="D3" s="3">
-        <v>0.10448200000000001</v>
+        <v>0.132026</v>
       </c>
       <c r="E3" s="3">
-        <v>0.10424600000000001</v>
+        <v>0.132716</v>
       </c>
       <c r="F3" s="3">
-        <v>0.110309</v>
+        <v>0.13769300000000001</v>
       </c>
       <c r="G3" s="3">
-        <v>0.10477</v>
+        <v>0.14674200000000001</v>
       </c>
       <c r="H3" s="3">
-        <v>0.15140600000000001</v>
+        <v>0.194386</v>
       </c>
       <c r="I3" s="3">
-        <v>0.21884200000000001</v>
+        <v>0.25407099999999999</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>0.105656</v>
+        <v>0.12926099999999999</v>
       </c>
       <c r="N3" s="3">
-        <v>0.105041</v>
+        <v>0.129166</v>
       </c>
       <c r="O3" s="3">
-        <v>0.103753</v>
+        <v>0.13080600000000001</v>
       </c>
       <c r="P3" s="3">
-        <v>0.10277600000000001</v>
+        <v>0.13064700000000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.102285</v>
+        <v>0.13095499999999999</v>
       </c>
       <c r="R3" s="3">
-        <v>0.103781</v>
+        <v>0.13262299999999999</v>
       </c>
       <c r="S3" s="3">
-        <v>0.10417800000000001</v>
+        <v>0.134021</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W3" s="3">
-        <v>0.106964</v>
+        <v>0.132993</v>
       </c>
       <c r="X3" s="3">
-        <v>0.10442899999999999</v>
+        <v>0.132577</v>
       </c>
       <c r="Y3" s="3">
-        <v>0.105349</v>
+        <v>0.13206200000000001</v>
       </c>
       <c r="Z3" s="3">
-        <v>0.10549</v>
+        <v>0.130853</v>
       </c>
       <c r="AA3" s="3">
-        <v>0.104875</v>
+        <v>0.130388</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.10213700000000001</v>
+        <v>0.131659</v>
       </c>
       <c r="AC3" s="3">
-        <v>0.100531</v>
+        <v>0.13462499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -7663,7 +7597,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>0.13080800000000001</v>
@@ -7688,7 +7622,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M5" s="3">
         <v>0.13095499999999999</v>
@@ -7713,7 +7647,7 @@
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="W5" s="3">
         <v>0.130079</v>
@@ -7952,25 +7886,25 @@
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <v>0.104777</v>
+        <v>0.12892500000000001</v>
       </c>
       <c r="N11" s="3">
-        <v>0.103796</v>
+        <v>0.12864100000000001</v>
       </c>
       <c r="O11" s="3">
-        <v>0.103936</v>
+        <v>0.12897</v>
       </c>
       <c r="P11" s="3">
-        <v>0.11143599999999999</v>
+        <v>0.14205699999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.12381499999999999</v>
+        <v>0.141873</v>
       </c>
       <c r="R11" s="3">
-        <v>0.15978000000000001</v>
+        <v>0.171878</v>
       </c>
       <c r="S11" s="3">
-        <v>0.18734999999999999</v>
+        <v>0.200986</v>
       </c>
       <c r="V11" t="s">
         <v>1</v>
@@ -8073,8 +8007,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>0.128249</v>
@@ -8099,7 +8033,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M13" s="3">
         <v>0.128662</v>
@@ -8362,25 +8296,25 @@
         <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>0.10528800000000001</v>
+        <v>0.13783799999999999</v>
       </c>
       <c r="N20" s="3">
-        <v>0.10538699999999999</v>
+        <v>0.138715</v>
       </c>
       <c r="O20" s="3">
-        <v>0.102245</v>
+        <v>0.13980400000000001</v>
       </c>
       <c r="P20" s="3">
-        <v>0.100969</v>
+        <v>0.13855400000000001</v>
       </c>
       <c r="Q20" s="3">
-        <v>0.110317</v>
+        <v>0.15459500000000001</v>
       </c>
       <c r="R20" s="3">
-        <v>0.174066</v>
+        <v>0.207676</v>
       </c>
       <c r="S20" s="3">
-        <v>0.22222800000000001</v>
+        <v>0.25411099999999998</v>
       </c>
       <c r="V20" t="s">
         <v>1</v>
@@ -8483,8 +8417,8 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>4</v>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0.13747100000000001</v>
@@ -8509,7 +8443,7 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M22" s="3">
         <v>0.13738500000000001</v>
